--- a/LoadComparison/bin/Debug/LoadComparisonTemplate.xlsx
+++ b/LoadComparison/bin/Debug/LoadComparisonTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -108,6 +108,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -417,7 +420,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -425,13 +428,13 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -439,13 +442,13 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -453,13 +456,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -467,13 +470,13 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -481,7 +484,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
@@ -517,22 +520,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BQ314"/>
+  <dimension ref="A1:BQ314"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>

--- a/LoadComparison/bin/Debug/LoadComparisonTemplate.xlsx
+++ b/LoadComparison/bin/Debug/LoadComparisonTemplate.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\visual_studio_2015\Projects\LoadComparison\LoadComparison\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="MainUltimateLoads" sheetId="3" r:id="rId2"/>
     <sheet name="MainEequivalentFatigueLoads" sheetId="4" r:id="rId3"/>
+    <sheet name="UltimateThermodynamicChart" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -399,6 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -504,9 +506,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -520,9 +525,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BQ314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2218,4 +2224,20 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>